--- a/AAA/myRepo-master/cypress/fixtures/autoDsuccess.xlsx
+++ b/AAA/myRepo-master/cypress/fixtures/autoDsuccess.xlsx
@@ -30,10 +30,10 @@
     <t>Tin nhắn mẫu</t>
   </si>
   <si>
-    <t>t {D}</t>
-  </si>
-  <si>
     <t>t 1!* á</t>
+  </si>
+  <si>
+    <t>t {D,10}</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -374,10 +374,10 @@
         <v>100248</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/AAA/myRepo-master/cypress/fixtures/autoDsuccess.xlsx
+++ b/AAA/myRepo-master/cypress/fixtures/autoDsuccess.xlsx
@@ -30,10 +30,10 @@
     <t>Tin nhắn mẫu</t>
   </si>
   <si>
-    <t>t 1!* á</t>
-  </si>
-  <si>
-    <t>t {D,10}</t>
+    <t>t {D,40}</t>
+  </si>
+  <si>
+    <t>t 1!* á@#$^&amp;()_+=`</t>
   </si>
 </sst>
 </file>
@@ -353,10 +353,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -371,13 +374,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100248</v>
+        <v>131887</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
